--- a/수정리스트_20160720.xlsx
+++ b/수정리스트_20160720.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="230">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,14 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디자인 요청중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인 요청중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>내정보수정 html 페이지 생성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,10 +421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피드백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2016.07.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -494,14 +482,6 @@
   </si>
   <si>
     <t>달력 안 닫히는 현상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인 요청중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인요청중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -739,10 +719,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>퍼블작업 확인 후 피드백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소메뉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -865,6 +841,123 @@
   </si>
   <si>
     <t>첨부화면처럼  깨짐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샐행아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴폼중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_4_push_trace_pop.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.07.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 칼라 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 여백 및 버튼 크기 조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세설명 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로 스크롤 수정 완료
+세로 스크롤일경우 인라인으로 처리 요망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희외때 맒씀드린데로
+없어진 항목을 채울수있는 항목이 필요함 아래 항목중 선택자료 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재해 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재해 분석 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_potential_risks_analyze.html
+1_2_acha_analyze.html
+1_3_disaster_analyze.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_3_disaster_report_detail.html
+1_3_disaster_report_register.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_potential_risks_detail.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_potential_risks_analyze2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팝업 공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디바이스 (iphon)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨진부분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 요청중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼블작업 확인 후 피드백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"퍼블작업 확인 후 피드백" 내용과 회의내용 매칭이 힘듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1_bonsa_hyunjang_comunity_search.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맘줄임을 했을경우 계행 기능은 안됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -920,7 +1013,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -969,6 +1062,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -999,7 +1110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1104,6 +1215,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,13 +1251,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1685925</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>175683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2305049</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>1276348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1145,7 +1271,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1155,7 +1281,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7210425" y="28312533"/>
+          <a:off x="7210425" y="36084933"/>
           <a:ext cx="619124" cy="1100665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1453,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1862,7 +1988,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>35</v>
@@ -1878,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="19" customFormat="1" ht="26.25" customHeight="1">
@@ -1889,7 +2015,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>37</v>
@@ -1897,9 +2023,7 @@
       <c r="E20" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>77</v>
-      </c>
+      <c r="F20" s="16"/>
       <c r="G20" s="16" t="s">
         <v>47</v>
       </c>
@@ -1953,9 +2077,7 @@
       <c r="E22" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>76</v>
-      </c>
+      <c r="F22" s="16"/>
       <c r="G22" s="16" t="s">
         <v>65</v>
       </c>
@@ -1972,13 +2094,13 @@
         <v>72</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>73</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -1992,14 +2114,14 @@
         <v>62</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16" t="s">
@@ -2014,14 +2136,14 @@
     </row>
     <row r="25" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A25" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>26</v>
@@ -2034,1150 +2156,1294 @@
         <v>2</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A26" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H26" s="28">
         <v>1</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A27" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B27" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>96</v>
-      </c>
       <c r="E27" s="31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H27" s="28">
         <v>1</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A28" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E28" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>99</v>
-      </c>
+      <c r="F28" s="16"/>
       <c r="G28" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H28" s="28">
         <v>1</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A29" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="17" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>116</v>
-      </c>
+      <c r="F29" s="16"/>
       <c r="G29" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A30" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>76</v>
-      </c>
+      <c r="F30" s="16"/>
       <c r="G30" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A31" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>76</v>
+      <c r="F31" s="28" t="s">
+        <v>204</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A32" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A33" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A34" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="16" t="s">
-        <v>117</v>
-      </c>
+      <c r="F34" s="16"/>
       <c r="G34" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="23"/>
     </row>
     <row r="35" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A35" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="23"/>
     </row>
     <row r="36" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A36" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E36" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A37" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E37" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A38" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E38" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H38" s="16"/>
       <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A39" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="23"/>
     </row>
     <row r="40" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="16" t="s">
-        <v>116</v>
-      </c>
+      <c r="F40" s="16"/>
       <c r="G40" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H40" s="16"/>
       <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A41" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="17" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="23"/>
     </row>
     <row r="42" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A42" s="16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E42" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H42" s="16"/>
       <c r="I42" s="23"/>
     </row>
     <row r="43" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A43" s="16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="17" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H43" s="16"/>
       <c r="I43" s="23"/>
     </row>
     <row r="44" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A44" s="16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E44" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="23"/>
     </row>
     <row r="45" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A45" s="16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="17" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A46" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="23"/>
+    <row r="46" spans="1:9" s="27" customFormat="1" ht="9" customHeight="1">
+      <c r="A46" s="25"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="38"/>
     </row>
     <row r="47" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A47" s="16" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>150</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C47" s="23"/>
       <c r="D47" s="17" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A48" s="16" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C48" s="23"/>
       <c r="D48" s="17" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A49" s="16" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>145</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C49" s="23"/>
       <c r="D49" s="17" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="23"/>
     </row>
     <row r="50" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A50" s="16" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>147</v>
+        <v>95</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>145</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E50" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H50" s="16"/>
       <c r="I50" s="23"/>
     </row>
     <row r="51" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A51" s="16" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>162</v>
+        <v>95</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H51" s="16"/>
       <c r="I51" s="23"/>
     </row>
     <row r="52" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A52" s="16" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>158</v>
+        <v>138</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E52" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="23"/>
     </row>
     <row r="53" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A53" s="16" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E53" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H53" s="16"/>
       <c r="I53" s="23"/>
     </row>
     <row r="54" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A54" s="16" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E54" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H54" s="16"/>
       <c r="I54" s="23"/>
     </row>
     <row r="55" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A55" s="16" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E55" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H55" s="16"/>
       <c r="I55" s="23"/>
     </row>
     <row r="56" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A56" s="16" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E56" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F56" s="16"/>
       <c r="G56" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H56" s="16"/>
       <c r="I56" s="23"/>
     </row>
     <row r="57" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A57" s="16" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C57" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>156</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>165</v>
       </c>
       <c r="E57" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H57" s="16"/>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="1:9" s="27" customFormat="1" ht="9" customHeight="1">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
+    <row r="58" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A58" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H58" s="16"/>
+      <c r="I58" s="23"/>
     </row>
     <row r="59" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A59" s="16" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" s="23"/>
+        <v>155</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>151</v>
+      </c>
       <c r="D59" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>169</v>
+        <v>158</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="23"/>
     </row>
     <row r="60" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A60" s="16" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C60" s="23"/>
+        <v>159</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>151</v>
+      </c>
       <c r="D60" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>169</v>
+        <v>160</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="H60" s="16"/>
       <c r="I60" s="23"/>
     </row>
     <row r="61" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A61" s="16" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="C61" s="23"/>
+        <v>95</v>
+      </c>
+      <c r="C61" s="33"/>
       <c r="D61" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F61" s="16"/>
+        <v>202</v>
+      </c>
+      <c r="E61" s="16"/>
+      <c r="F61" s="28" t="s">
+        <v>204</v>
+      </c>
       <c r="G61" s="16" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A62" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C62" s="23"/>
-      <c r="D62" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="H62" s="16"/>
-      <c r="I62" s="23"/>
+    <row r="62" spans="1:9" s="27" customFormat="1" ht="9" customHeight="1">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
     </row>
     <row r="63" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A63" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C63" s="23"/>
       <c r="D63" s="17" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F63" s="16"/>
+        <v>164</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>204</v>
+      </c>
       <c r="G63" s="16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H63" s="16"/>
       <c r="I63" s="23"/>
     </row>
     <row r="64" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A64" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" s="23" t="s">
         <v>166</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>179</v>
       </c>
       <c r="C64" s="23"/>
       <c r="D64" s="17" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F64" s="16"/>
       <c r="G64" s="16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H64" s="16"/>
       <c r="I64" s="23"/>
     </row>
     <row r="65" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A65" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" s="23"/>
+        <v>168</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>205</v>
+      </c>
       <c r="D65" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E65" s="16" t="s">
         <v>169</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="23"/>
     </row>
     <row r="66" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A66" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C66" s="23"/>
       <c r="D66" s="17" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F66" s="16"/>
+        <v>164</v>
+      </c>
+      <c r="F66" s="35" t="s">
+        <v>209</v>
+      </c>
       <c r="G66" s="16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H66" s="16"/>
-      <c r="I66" s="23"/>
+      <c r="I66" s="23" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="67" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A67" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="C67" s="23"/>
+        <v>171</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>220</v>
+      </c>
       <c r="D67" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>169</v>
+        <v>172</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F67" s="16"/>
       <c r="G67" s="16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H67" s="16"/>
-      <c r="I67" s="23"/>
+      <c r="I67" s="23" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="68" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A68" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="C68" s="23"/>
+        <v>173</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>215</v>
+      </c>
       <c r="D68" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>169</v>
+        <v>174</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F68" s="16"/>
       <c r="G68" s="16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H68" s="16"/>
       <c r="I68" s="23"/>
     </row>
     <row r="69" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A69" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="17" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F69" s="16"/>
+        <v>164</v>
+      </c>
+      <c r="F69" s="35" t="s">
+        <v>211</v>
+      </c>
       <c r="G69" s="16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H69" s="16"/>
-      <c r="I69" s="23"/>
+      <c r="I69" s="23" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="70" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A70" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="C70" s="23"/>
+        <v>177</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>216</v>
+      </c>
       <c r="D70" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>169</v>
+        <v>178</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F70" s="16"/>
       <c r="G70" s="16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H70" s="16"/>
       <c r="I70" s="23"/>
     </row>
     <row r="71" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A71" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="17" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F71" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="F71" s="37" t="s">
+        <v>225</v>
+      </c>
       <c r="G71" s="16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H71" s="16"/>
       <c r="I71" s="23"/>
     </row>
     <row r="72" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A72" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="C72" s="23"/>
+        <v>181</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>217</v>
+      </c>
       <c r="D72" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>169</v>
+        <v>182</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="16" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="23"/>
     </row>
     <row r="73" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A73" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C73" s="23"/>
       <c r="D73" s="17" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="16" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="H73" s="16"/>
       <c r="I73" s="23"/>
     </row>
     <row r="74" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A74" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="C74" s="23"/>
+        <v>185</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>219</v>
+      </c>
       <c r="D74" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>169</v>
+        <v>186</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H74" s="16"/>
       <c r="I74" s="23"/>
     </row>
-    <row r="75" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
+    <row r="75" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A75" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C75" s="23"/>
+        <v>187</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>219</v>
+      </c>
       <c r="D75" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>169</v>
+        <v>188</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H75" s="16"/>
       <c r="I75" s="23"/>
     </row>
-    <row r="76" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
+    <row r="76" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A76" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="C76" s="23"/>
+        <v>189</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>219</v>
+      </c>
       <c r="D76" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>169</v>
+        <v>190</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="H76" s="16"/>
       <c r="I76" s="23"/>
     </row>
-    <row r="77" spans="1:9" s="19" customFormat="1" ht="111" customHeight="1">
+    <row r="77" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A77" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="C77" s="23"/>
+        <v>192</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>218</v>
+      </c>
       <c r="D77" s="17" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F77" s="16"/>
       <c r="G77" s="16" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="H77" s="16"/>
-      <c r="I77" s="23"/>
+      <c r="I77" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A78" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" s="23"/>
+      <c r="D78" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="H78" s="16"/>
+      <c r="I78" s="23"/>
+    </row>
+    <row r="79" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
+      <c r="A79" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="H79" s="16"/>
+      <c r="I79" s="23"/>
+    </row>
+    <row r="80" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
+      <c r="A80" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C80" s="23"/>
+      <c r="D80" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="H80" s="16"/>
+      <c r="I80" s="23"/>
+    </row>
+    <row r="81" spans="1:9" s="19" customFormat="1" ht="111" customHeight="1">
+      <c r="A81" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C81" s="23"/>
+      <c r="D81" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="H81" s="16"/>
+      <c r="I81" s="23"/>
+    </row>
+    <row r="82" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
+      <c r="A82" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C82" s="23"/>
+      <c r="D82" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H82" s="16"/>
+      <c r="I82" s="23"/>
+    </row>
+    <row r="83" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
+      <c r="A83" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E83" s="16"/>
+      <c r="F83" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="G83" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H83" s="16"/>
+      <c r="I83" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/수정리스트_20160720.xlsx
+++ b/수정리스트_20160720.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="240">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -752,10 +752,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>본사/현장공지 상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사진이미지 표시영역 표시 안되고 있음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -878,15 +874,6 @@
   <si>
     <t>가로 스크롤 수정 완료
 세로 스크롤일경우 인라인으로 처리 요망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자료요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>희외때 맒씀드린데로
-없어진 항목을 채울수있는 항목이 필요함 아래 항목중 선택자료 요청</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -925,10 +912,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디바이스 (iphon)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전체 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -941,10 +924,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디자인 요청중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>퍼블작업 확인 후 피드백</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -958,6 +937,82 @@
   </si>
   <si>
     <t>맘줄임을 했을경우 계행 기능은 안됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전보건 focus 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">희외때 맒씀드린데로
+없어진 항목을 채울수있는 항목이 필요함 아래 항목중 선택자료 요청
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">생년월일, 전화번호 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간격 줄임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말줄임 할경우 제대로 작동
+단 말줄임이 아닌 pre 일 경우도 재대로 작동되게끔 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1_bonsa_hyunjang_notice.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_3_site_auth_request_status.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_3_disaster_analyze.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_2_pin_lock.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디바이스 (iphone)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.app이 아닌 모바일 웹으로 체크 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_potential_risks_register.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMART 점검 동록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 2개 일때 3개일때 조정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주석처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱에서 확인 요청</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -965,7 +1020,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1012,8 +1067,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1074,12 +1137,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1110,7 +1167,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1213,23 +1270,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1281,7 +1335,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7210425" y="36084933"/>
+          <a:off x="7210425" y="36199233"/>
           <a:ext cx="619124" cy="1100665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1579,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="B60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1599,17 +1653,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -2299,7 +2353,7 @@
         <v>31</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>100</v>
@@ -2595,7 +2649,7 @@
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>26</v>
@@ -2609,25 +2663,25 @@
     </row>
     <row r="46" spans="1:9" s="27" customFormat="1" ht="9" customHeight="1">
       <c r="A46" s="25"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="39"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="37"/>
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
-      <c r="I46" s="38"/>
+      <c r="I46" s="36"/>
     </row>
     <row r="47" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A47" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B47" s="23" t="s">
         <v>95</v>
       </c>
       <c r="C47" s="23"/>
       <c r="D47" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>26</v>
@@ -2641,7 +2695,7 @@
     </row>
     <row r="48" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A48" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B48" s="23" t="s">
         <v>132</v>
@@ -2662,7 +2716,7 @@
     </row>
     <row r="49" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A49" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B49" s="23" t="s">
         <v>132</v>
@@ -2683,7 +2737,7 @@
     </row>
     <row r="50" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A50" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B50" s="23" t="s">
         <v>95</v>
@@ -2706,7 +2760,7 @@
     </row>
     <row r="51" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A51" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B51" s="23" t="s">
         <v>95</v>
@@ -2729,7 +2783,7 @@
     </row>
     <row r="52" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A52" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B52" s="23" t="s">
         <v>138</v>
@@ -2752,7 +2806,7 @@
     </row>
     <row r="53" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A53" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B53" s="23" t="s">
         <v>143</v>
@@ -2775,7 +2829,7 @@
     </row>
     <row r="54" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A54" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B54" s="23" t="s">
         <v>146</v>
@@ -2798,7 +2852,7 @@
     </row>
     <row r="55" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A55" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B55" s="23" t="s">
         <v>148</v>
@@ -2821,7 +2875,7 @@
     </row>
     <row r="56" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A56" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B56" s="23" t="s">
         <v>150</v>
@@ -2844,7 +2898,7 @@
     </row>
     <row r="57" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A57" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B57" s="23" t="s">
         <v>155</v>
@@ -2867,7 +2921,7 @@
     </row>
     <row r="58" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A58" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B58" s="23" t="s">
         <v>155</v>
@@ -2890,7 +2944,7 @@
     </row>
     <row r="59" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A59" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B59" s="23" t="s">
         <v>155</v>
@@ -2913,7 +2967,7 @@
     </row>
     <row r="60" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A60" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B60" s="23" t="s">
         <v>159</v>
@@ -2936,21 +2990,21 @@
     </row>
     <row r="61" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A61" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B61" s="23" t="s">
         <v>95</v>
       </c>
       <c r="C61" s="33"/>
       <c r="D61" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="23"/>
@@ -2977,17 +3031,17 @@
       <c r="D63" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="E63" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="F63" s="28" t="s">
-        <v>204</v>
-      </c>
+      <c r="E63" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="16"/>
       <c r="G63" s="16" t="s">
         <v>165</v>
       </c>
       <c r="H63" s="16"/>
-      <c r="I63" s="23"/>
+      <c r="I63" s="23" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="64" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A64" s="16" t="s">
@@ -3003,7 +3057,9 @@
       <c r="E64" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="F64" s="16"/>
+      <c r="F64" s="35" t="s">
+        <v>220</v>
+      </c>
       <c r="G64" s="16" t="s">
         <v>165</v>
       </c>
@@ -3018,7 +3074,7 @@
         <v>168</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D65" s="17" t="s">
         <v>169</v>
@@ -3042,20 +3098,20 @@
       </c>
       <c r="C66" s="23"/>
       <c r="D66" s="17" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="F66" s="35" t="s">
-        <v>209</v>
+      <c r="F66" s="34" t="s">
+        <v>208</v>
       </c>
       <c r="G66" s="16" t="s">
         <v>165</v>
       </c>
       <c r="H66" s="16"/>
       <c r="I66" s="23" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
@@ -3066,7 +3122,7 @@
         <v>171</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>172</v>
@@ -3080,7 +3136,7 @@
       </c>
       <c r="H67" s="16"/>
       <c r="I67" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
@@ -3091,7 +3147,7 @@
         <v>173</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>174</v>
@@ -3117,18 +3173,16 @@
       <c r="D69" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E69" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="F69" s="35" t="s">
-        <v>211</v>
-      </c>
+      <c r="E69" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="16"/>
       <c r="G69" s="16" t="s">
         <v>165</v>
       </c>
       <c r="H69" s="16"/>
       <c r="I69" s="23" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
@@ -3139,7 +3193,7 @@
         <v>177</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D70" s="17" t="s">
         <v>178</v>
@@ -3159,18 +3213,16 @@
         <v>161</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F71" s="37" t="s">
-        <v>225</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" s="16"/>
       <c r="G71" s="16" t="s">
         <v>165</v>
       </c>
@@ -3182,13 +3234,13 @@
         <v>161</v>
       </c>
       <c r="B72" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" s="17" t="s">
         <v>181</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>182</v>
       </c>
       <c r="E72" s="31" t="s">
         <v>26</v>
@@ -3198,21 +3250,25 @@
         <v>165</v>
       </c>
       <c r="H72" s="16"/>
-      <c r="I72" s="23"/>
+      <c r="I72" s="23" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="73" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A73" s="16" t="s">
         <v>161</v>
       </c>
       <c r="B73" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C73" s="23"/>
-      <c r="D73" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>164</v>
+      <c r="E73" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="16" t="s">
@@ -3226,13 +3282,13 @@
         <v>161</v>
       </c>
       <c r="B74" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D74" s="17" t="s">
         <v>185</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>186</v>
       </c>
       <c r="E74" s="31" t="s">
         <v>26</v>
@@ -3249,13 +3305,13 @@
         <v>161</v>
       </c>
       <c r="B75" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>187</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>188</v>
       </c>
       <c r="E75" s="31" t="s">
         <v>26</v>
@@ -3272,20 +3328,20 @@
         <v>161</v>
       </c>
       <c r="B76" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D76" s="17" t="s">
         <v>189</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>190</v>
       </c>
       <c r="E76" s="31" t="s">
         <v>26</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H76" s="16"/>
       <c r="I76" s="23"/>
@@ -3295,24 +3351,24 @@
         <v>161</v>
       </c>
       <c r="B77" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C77" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>164</v>
+      <c r="E77" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F77" s="16"/>
       <c r="G77" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H77" s="16"/>
       <c r="I77" s="23" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
@@ -3320,14 +3376,16 @@
         <v>161</v>
       </c>
       <c r="B78" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>164</v>
+      <c r="E78" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16" t="s">
@@ -3341,13 +3399,13 @@
         <v>161</v>
       </c>
       <c r="B79" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D79" s="17" t="s">
         <v>196</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>197</v>
       </c>
       <c r="E79" s="31" t="s">
         <v>26</v>
@@ -3364,14 +3422,16 @@
         <v>161</v>
       </c>
       <c r="B80" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="D80" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C80" s="23"/>
-      <c r="D80" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>164</v>
+      <c r="E80" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16" t="s">
@@ -3385,32 +3445,36 @@
         <v>161</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>164</v>
+        <v>200</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="F81" s="16"/>
       <c r="G81" s="16" t="s">
         <v>165</v>
       </c>
       <c r="H81" s="16"/>
-      <c r="I81" s="23"/>
+      <c r="I81" s="23" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="82" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
       <c r="A82" s="16" t="s">
         <v>161</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="C82" s="23"/>
+        <v>210</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>231</v>
+      </c>
       <c r="D82" s="17" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E82" s="31" t="s">
         <v>26</v>
@@ -3424,26 +3488,74 @@
     </row>
     <row r="83" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
       <c r="A83" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E83" s="16"/>
-      <c r="F83" s="36" t="s">
-        <v>224</v>
+      <c r="F83" s="35" t="s">
+        <v>220</v>
       </c>
       <c r="G83" s="16" t="s">
         <v>104</v>
       </c>
       <c r="H83" s="16"/>
       <c r="I83" s="23"/>
+    </row>
+    <row r="84" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A84" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E84" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H84" s="16"/>
+      <c r="I84" s="23"/>
+    </row>
+    <row r="85" spans="1:9" s="19" customFormat="1" ht="111" customHeight="1">
+      <c r="A85" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H85" s="16"/>
+      <c r="I85" s="23" t="s">
+        <v>238</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/수정리스트_20160720.xlsx
+++ b/수정리스트_20160720.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="241">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1013,6 +1013,10 @@
   </si>
   <si>
     <t>앱에서 확인 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2_buoi_search.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1167,7 +1171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1281,6 +1285,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1325,7 +1332,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1635,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="B78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1653,17 +1660,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -3284,8 +3291,8 @@
       <c r="B74" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="C74" s="23" t="s">
-        <v>216</v>
+      <c r="C74" s="38" t="s">
+        <v>240</v>
       </c>
       <c r="D74" s="17" t="s">
         <v>185</v>
@@ -3532,7 +3539,7 @@
       <c r="H84" s="16"/>
       <c r="I84" s="23"/>
     </row>
-    <row r="85" spans="1:9" s="19" customFormat="1" ht="111" customHeight="1">
+    <row r="85" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
       <c r="A85" s="16" t="s">
         <v>161</v>
       </c>

--- a/수정리스트_20160720.xlsx
+++ b/수정리스트_20160720.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="246">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
   </si>
   <si>
     <t>완료여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롯대건설 수정리스트 (퍼블리싱)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1017,6 +1013,30 @@
   </si>
   <si>
     <t>3_2_buoi_search.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯대건설 작업리스트 (디자인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯대건설 작업리스트 (퍼블리싱)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUSH아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.07.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로딩이미지 제2의 롯데월드 건물 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일첨부 아이콘 색 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1142,7 +1162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1165,13 +1185,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1290,6 +1319,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1640,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1661,7 +1693,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1">
       <c r="A1" s="39" t="s">
-        <v>6</v>
+        <v>241</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -1689,13 +1721,13 @@
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>4</v>
@@ -1703,17 +1735,17 @@
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1722,15 +1754,15 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="36">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1739,21 +1771,21 @@
     </row>
     <row r="5" spans="1:9" s="12" customFormat="1" ht="32.25" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="28">
         <v>1</v>
@@ -1762,46 +1794,46 @@
     </row>
     <row r="6" spans="1:9" s="12" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="29">
         <v>1</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="12" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="29">
         <v>1</v>
@@ -1810,21 +1842,21 @@
     </row>
     <row r="8" spans="1:9" s="12" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="14">
         <v>2</v>
@@ -1833,48 +1865,48 @@
     </row>
     <row r="9" spans="1:9" s="12" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="29">
         <v>1</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="19" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="29">
         <v>1</v>
@@ -1883,23 +1915,23 @@
     </row>
     <row r="11" spans="1:9" s="19" customFormat="1">
       <c r="A11" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="29">
         <v>1</v>
@@ -1908,21 +1940,21 @@
     </row>
     <row r="12" spans="1:9" s="12" customFormat="1">
       <c r="A12" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="29">
         <v>1</v>
@@ -1931,25 +1963,25 @@
     </row>
     <row r="13" spans="1:9" s="12" customFormat="1">
       <c r="A13" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="27" customFormat="1" ht="6.75" customHeight="1">
@@ -1965,65 +1997,65 @@
     </row>
     <row r="15" spans="1:9" s="12" customFormat="1">
       <c r="A15" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="19" customFormat="1" ht="24">
       <c r="A16" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>10</v>
-      </c>
       <c r="E16" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="16">
         <v>2</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="12" customFormat="1">
       <c r="A17" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -2043,104 +2075,104 @@
     </row>
     <row r="19" spans="1:9" s="22" customFormat="1" ht="24" customHeight="1">
       <c r="A19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="C19" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>35</v>
-      </c>
       <c r="E19" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="16">
         <v>2</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="19" customFormat="1" ht="26.25" customHeight="1">
       <c r="A20" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>37</v>
-      </c>
       <c r="E20" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" s="28">
         <v>1</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="C21" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>51</v>
-      </c>
       <c r="E21" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="28">
         <v>1</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A22" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="C22" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="E22" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" s="28">
         <v>1</v>
@@ -2149,19 +2181,19 @@
     </row>
     <row r="23" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A23" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="C23" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>73</v>
-      </c>
       <c r="E23" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -2172,498 +2204,498 @@
     </row>
     <row r="24" spans="1:9" s="19" customFormat="1" ht="33" customHeight="1">
       <c r="A24" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="16">
         <v>2</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A25" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" s="16">
         <v>2</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A26" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>90</v>
-      </c>
       <c r="E26" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H26" s="28">
         <v>1</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A27" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="D27" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>94</v>
-      </c>
       <c r="E27" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H27" s="28">
         <v>1</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A28" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" s="28">
         <v>1</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A29" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A30" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A31" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A32" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="23"/>
     </row>
     <row r="33" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A33" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A34" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="23"/>
     </row>
     <row r="35" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A35" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="23"/>
     </row>
     <row r="36" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A36" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A37" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A38" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H38" s="16"/>
       <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A39" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H39" s="16"/>
       <c r="I39" s="23"/>
     </row>
     <row r="40" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A40" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H40" s="16"/>
       <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A41" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="23"/>
       <c r="D41" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="23"/>
     </row>
     <row r="42" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A42" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="23" t="s">
         <v>124</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>125</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H42" s="16"/>
       <c r="I42" s="23"/>
     </row>
     <row r="43" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A43" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H43" s="16"/>
       <c r="I43" s="23"/>
     </row>
     <row r="44" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A44" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>131</v>
-      </c>
       <c r="E44" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="23"/>
     </row>
     <row r="45" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A45" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="23"/>
@@ -2681,337 +2713,337 @@
     </row>
     <row r="47" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A47" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" s="23"/>
       <c r="D47" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H47" s="16"/>
       <c r="I47" s="23"/>
     </row>
     <row r="48" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A48" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H48" s="16"/>
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A49" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="23"/>
       <c r="D49" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H49" s="16"/>
       <c r="I49" s="23"/>
     </row>
     <row r="50" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A50" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H50" s="16"/>
       <c r="I50" s="23"/>
     </row>
     <row r="51" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A51" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H51" s="16"/>
       <c r="I51" s="23"/>
     </row>
     <row r="52" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A52" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="23"/>
     </row>
     <row r="53" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A53" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B53" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C53" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>144</v>
-      </c>
       <c r="E53" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H53" s="16"/>
       <c r="I53" s="23"/>
     </row>
     <row r="54" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A54" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B54" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C54" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>147</v>
-      </c>
       <c r="E54" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H54" s="16"/>
       <c r="I54" s="23"/>
     </row>
     <row r="55" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A55" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H55" s="16"/>
       <c r="I55" s="23"/>
     </row>
     <row r="56" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A56" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B56" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="D56" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>152</v>
-      </c>
       <c r="E56" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F56" s="16"/>
       <c r="G56" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H56" s="16"/>
       <c r="I56" s="23"/>
     </row>
     <row r="57" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A57" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B57" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>156</v>
-      </c>
       <c r="E57" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H57" s="16"/>
       <c r="I57" s="23"/>
     </row>
     <row r="58" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A58" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B58" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C58" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>156</v>
-      </c>
       <c r="E58" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H58" s="16"/>
       <c r="I58" s="23"/>
     </row>
     <row r="59" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A59" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F59" s="16"/>
       <c r="G59" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="23"/>
     </row>
     <row r="60" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A60" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B60" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C60" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>160</v>
-      </c>
       <c r="E60" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H60" s="16"/>
       <c r="I60" s="23"/>
     </row>
     <row r="61" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A61" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="33"/>
       <c r="D61" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="23"/>
@@ -3029,544 +3061,704 @@
     </row>
     <row r="63" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A63" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="23" t="s">
         <v>161</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>162</v>
       </c>
       <c r="C63" s="23"/>
       <c r="D63" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H63" s="16"/>
       <c r="I63" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A64" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C64" s="23"/>
       <c r="D64" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E64" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F64" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="G64" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="F64" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>165</v>
       </c>
       <c r="H64" s="16"/>
       <c r="I64" s="23"/>
     </row>
     <row r="65" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A65" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B65" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C65" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>169</v>
-      </c>
       <c r="E65" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F65" s="16"/>
       <c r="G65" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H65" s="16"/>
       <c r="I65" s="23"/>
     </row>
     <row r="66" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A66" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C66" s="23"/>
       <c r="D66" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E66" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F66" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="G66" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="F66" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>165</v>
       </c>
       <c r="H66" s="16"/>
       <c r="I66" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A67" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B67" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D67" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C67" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>172</v>
-      </c>
       <c r="E67" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F67" s="16"/>
       <c r="G67" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H67" s="16"/>
       <c r="I67" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A68" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B68" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C68" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>174</v>
-      </c>
       <c r="E68" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F68" s="16"/>
       <c r="G68" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H68" s="16"/>
       <c r="I68" s="23"/>
     </row>
     <row r="69" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A69" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F69" s="16"/>
       <c r="G69" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H69" s="16"/>
       <c r="I69" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A70" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B70" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D70" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C70" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>178</v>
-      </c>
       <c r="E70" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F70" s="16"/>
       <c r="G70" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H70" s="16"/>
       <c r="I70" s="23"/>
     </row>
     <row r="71" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A71" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H71" s="16"/>
       <c r="I71" s="23"/>
     </row>
     <row r="72" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A72" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B72" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D72" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C72" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>181</v>
-      </c>
       <c r="E72" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A73" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B73" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D73" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C73" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>183</v>
-      </c>
       <c r="E73" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H73" s="16"/>
       <c r="I73" s="23"/>
     </row>
     <row r="74" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A74" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B74" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="D74" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C74" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>185</v>
-      </c>
       <c r="E74" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H74" s="16"/>
       <c r="I74" s="23"/>
     </row>
     <row r="75" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A75" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B75" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C75" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>187</v>
-      </c>
       <c r="E75" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H75" s="16"/>
       <c r="I75" s="23"/>
     </row>
     <row r="76" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A76" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B76" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D76" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C76" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>189</v>
-      </c>
       <c r="E76" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H76" s="16"/>
       <c r="I76" s="23"/>
     </row>
     <row r="77" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A77" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B77" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C77" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>192</v>
-      </c>
       <c r="E77" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F77" s="16"/>
       <c r="G77" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H77" s="16"/>
       <c r="I77" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A78" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B78" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D78" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="C78" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>194</v>
-      </c>
       <c r="E78" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H78" s="16"/>
       <c r="I78" s="23"/>
     </row>
     <row r="79" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
       <c r="A79" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B79" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D79" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="C79" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>196</v>
-      </c>
       <c r="E79" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F79" s="16"/>
       <c r="G79" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H79" s="16"/>
       <c r="I79" s="23"/>
     </row>
     <row r="80" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
       <c r="A80" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B80" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="D80" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C80" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>198</v>
-      </c>
       <c r="E80" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H80" s="16"/>
       <c r="I80" s="23"/>
     </row>
     <row r="81" spans="1:9" s="19" customFormat="1" ht="111" customHeight="1">
       <c r="A81" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F81" s="16"/>
       <c r="G81" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H81" s="16"/>
       <c r="I81" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
       <c r="A82" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B82" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="C82" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>211</v>
-      </c>
       <c r="E82" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H82" s="16"/>
       <c r="I82" s="23"/>
     </row>
     <row r="83" spans="1:9" s="19" customFormat="1" ht="45" customHeight="1">
       <c r="A83" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C83" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D83" s="17" t="s">
         <v>218</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>219</v>
       </c>
       <c r="E83" s="16"/>
       <c r="F83" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H83" s="16"/>
       <c r="I83" s="23"/>
     </row>
     <row r="84" spans="1:9" s="19" customFormat="1" ht="44.25" customHeight="1">
       <c r="A84" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H84" s="16"/>
       <c r="I84" s="23"/>
     </row>
     <row r="85" spans="1:9" s="19" customFormat="1" ht="43.5" customHeight="1">
       <c r="A85" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B85" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D85" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="C85" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>237</v>
-      </c>
       <c r="E85" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F85" s="16"/>
       <c r="G85" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H85" s="16"/>
       <c r="I85" s="23" t="s">
-        <v>238</v>
-      </c>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A87" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+    </row>
+    <row r="88" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A88" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="19" customFormat="1" ht="39" customHeight="1">
+      <c r="A89" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="23"/>
+      <c r="D89" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H89" s="16"/>
+      <c r="I89" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="19" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A90" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="33"/>
+      <c r="D90" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H90" s="16"/>
+      <c r="I90" s="23"/>
+    </row>
+    <row r="91" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A91" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" s="33"/>
+      <c r="D91" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H91" s="16"/>
+      <c r="I91" s="23"/>
+    </row>
+    <row r="92" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A92" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" s="33"/>
+      <c r="D92" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="G92" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H92" s="16"/>
+      <c r="I92" s="23"/>
+    </row>
+    <row r="93" spans="1:9" s="19" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A93" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93" s="33"/>
+      <c r="D93" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H93" s="16"/>
+      <c r="I93" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A87:I87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/수정리스트_20160720.xlsx
+++ b/수정리스트_20160720.xlsx
@@ -1364,7 +1364,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1674,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3538,10 +3538,10 @@
       <c r="D83" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="E83" s="16"/>
-      <c r="F83" s="35" t="s">
-        <v>219</v>
-      </c>
+      <c r="E83" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" s="16"/>
       <c r="G83" s="16" t="s">
         <v>103</v>
       </c>
